--- a/outputs_prep_v2/qc_by_interviewer_v2.xlsx
+++ b/outputs_prep_v2/qc_by_interviewer_v2.xlsx
@@ -473,7 +473,7 @@
         <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8493380570576</v>
+        <v>21.6949468581018</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1223029267251</v>
+        <v>21.1893826105533</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>143</v>
       </c>
       <c r="C4" t="n">
-        <v>13.3741258741259</v>
+        <v>18.9064967290774</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>129</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4913728432108</v>
+        <v>21.0708927231808</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>115</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6570827489481</v>
+        <v>19.249649368864</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>112</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5620679723502</v>
+        <v>19.0668202764977</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +539,7 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8438416422287</v>
+        <v>17.4780058651026</v>
       </c>
     </row>
     <row r="9">
@@ -550,7 +550,7 @@
         <v>84</v>
       </c>
       <c r="C9" t="n">
-        <v>13.4408602150538</v>
+        <v>19.3500384024578</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>11.7288306451613</v>
+        <v>17.1370967741935</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9233870967742</v>
+        <v>18.9012096774194</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +583,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>12.1827956989247</v>
+        <v>18.0967741935484</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +594,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="n">
-        <v>12.225582437276</v>
+        <v>17.5627240143369</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="n">
-        <v>16.6710735060814</v>
+        <v>22.1840296139609</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +616,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9677419354839</v>
+        <v>16.2634408602151</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="n">
-        <v>12.9588431590656</v>
+        <v>18.5761957730812</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="C17" t="n">
-        <v>14.63133640553</v>
+        <v>20.2044930875576</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +649,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="n">
-        <v>13.1840437788018</v>
+        <v>19.1100230414747</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +660,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>11.1954459203036</v>
+        <v>16.729917773561</v>
       </c>
     </row>
     <row r="20">
@@ -671,7 +671,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>11.2727910238429</v>
+        <v>17.1195652173913</v>
       </c>
     </row>
     <row r="21">
@@ -682,7 +682,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>10.6362007168459</v>
+        <v>16.173835125448</v>
       </c>
     </row>
     <row r="22">
@@ -693,7 +693,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="n">
-        <v>11.2423195084485</v>
+        <v>16.7914746543779</v>
       </c>
     </row>
     <row r="23">
@@ -704,7 +704,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>13.8051782682513</v>
+        <v>19.1744482173175</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6192699490662</v>
+        <v>17.1052631578947</v>
       </c>
     </row>
     <row r="25">
@@ -726,7 +726,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>10.7302867383513</v>
+        <v>16.1514336917563</v>
       </c>
     </row>
     <row r="26">
@@ -737,7 +737,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>15.3341013824885</v>
+        <v>21.1175115207373</v>
       </c>
     </row>
     <row r="27">
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>18.3333333333333</v>
+        <v>23.9381720430108</v>
       </c>
     </row>
     <row r="28">
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>10.5270737327189</v>
+        <v>16.3162442396313</v>
       </c>
     </row>
     <row r="29">
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2839861751152</v>
+        <v>17.7851382488479</v>
       </c>
     </row>
     <row r="30">
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>11.0421836228288</v>
+        <v>16.6408188585608</v>
       </c>
     </row>
     <row r="31">
@@ -792,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>10.7221407624633</v>
+        <v>16.1473607038123</v>
       </c>
     </row>
     <row r="32">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>14.7177419354839</v>
+        <v>20.3995601173021</v>
       </c>
     </row>
     <row r="33">
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>10.9507640067912</v>
+        <v>16.5747028862479</v>
       </c>
     </row>
     <row r="34">
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>15.6586021505376</v>
+        <v>21.7069892473118</v>
       </c>
     </row>
     <row r="35">
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>12.6008064516129</v>
+        <v>18.6491935483871</v>
       </c>
     </row>
   </sheetData>

--- a/outputs_prep_v2/qc_by_interviewer_v2.xlsx
+++ b/outputs_prep_v2/qc_by_interviewer_v2.xlsx
@@ -473,7 +473,7 @@
         <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6949468581018</v>
+        <v>16.4553421592392</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1893826105533</v>
+        <v>15.8326212347789</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>143</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9064967290774</v>
+        <v>13.8901421159486</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>129</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0708927231808</v>
+        <v>16.072768192048</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>115</v>
       </c>
       <c r="C6" t="n">
-        <v>19.249649368864</v>
+        <v>14.2847124824684</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>112</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0668202764977</v>
+        <v>14.2533122119816</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +539,7 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4780058651026</v>
+        <v>12.5366568914956</v>
       </c>
     </row>
     <row r="9">
@@ -550,7 +550,7 @@
         <v>84</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3500384024578</v>
+        <v>14.1369047619048</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>17.1370967741935</v>
+        <v>12.4495967741935</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9012096774194</v>
+        <v>13.5685483870968</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +583,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0967741935484</v>
+        <v>12.747311827957</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +594,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5627240143369</v>
+        <v>12.9872311827957</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="n">
-        <v>22.1840296139609</v>
+        <v>17.2593865679535</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +616,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2634408602151</v>
+        <v>11.7271505376344</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5761957730812</v>
+        <v>13.5567296996663</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +638,7 @@
         <v>56</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2044930875576</v>
+        <v>15.1641705069124</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +649,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="n">
-        <v>19.1100230414747</v>
+        <v>13.8248847926267</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +660,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>16.729917773561</v>
+        <v>11.8200506008855</v>
       </c>
     </row>
     <row r="20">
@@ -671,7 +671,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>17.1195652173913</v>
+        <v>11.8338008415147</v>
       </c>
     </row>
     <row r="21">
@@ -682,7 +682,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>16.173835125448</v>
+        <v>11.3620071684588</v>
       </c>
     </row>
     <row r="22">
@@ -693,7 +693,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="n">
-        <v>16.7914746543779</v>
+        <v>11.7415514592934</v>
       </c>
     </row>
     <row r="23">
@@ -704,7 +704,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>19.1744482173175</v>
+        <v>14.4949066213922</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>17.1052631578947</v>
+        <v>12.1922750424448</v>
       </c>
     </row>
     <row r="25">
@@ -726,7 +726,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>16.1514336917563</v>
+        <v>11.3575268817204</v>
       </c>
     </row>
     <row r="26">
@@ -737,7 +737,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>21.1175115207373</v>
+        <v>15.8870967741935</v>
       </c>
     </row>
     <row r="27">
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>23.9381720430108</v>
+        <v>18.7768817204301</v>
       </c>
     </row>
     <row r="28">
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>16.3162442396313</v>
+        <v>11.0167050691244</v>
       </c>
     </row>
     <row r="29">
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>17.7851382488479</v>
+        <v>12.8744239631336</v>
       </c>
     </row>
     <row r="30">
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>16.6408188585608</v>
+        <v>11.6160049627792</v>
       </c>
     </row>
     <row r="31">
@@ -792,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>16.1473607038123</v>
+        <v>11.3453079178886</v>
       </c>
     </row>
     <row r="32">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>20.3995601173021</v>
+        <v>15.2675953079179</v>
       </c>
     </row>
     <row r="33">
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>16.5747028862479</v>
+        <v>11.5662139219015</v>
       </c>
     </row>
     <row r="34">
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>21.7069892473118</v>
+        <v>16.1962365591398</v>
       </c>
     </row>
     <row r="35">
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>18.6491935483871</v>
+        <v>13.4072580645161</v>
       </c>
     </row>
   </sheetData>
